--- a/old_eval/processed_evaluations.xlsx
+++ b/old_eval/processed_evaluations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2391,6 +2391,189 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Carla Diaz</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2024-06-03</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Desarrollador Trainee JAVA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>JAVA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Lictic</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Javier</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.5869565217</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>No corresponde.</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Buen desempeño a pesar de la escasa experiencia.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Julian Peña</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2024-08-08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Desarrollador Trainee</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>COBOL</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Credicoop</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Nehuen</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>No corresponde.</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Rendimiento aceptable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Gustavo Zurita</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2024-03-26</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Data Analyst Trainee Python</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Python</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Trainee</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>SIPE</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Belen</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0.5909090909090909</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.5434782609</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>No corresponde.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Aceptable.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
